--- a/camp-backend/src/main/resources/templates/student_template.xlsx
+++ b/camp-backend/src/main/resources/templates/student_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,12 +368,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
+    <col min="1" max="1" width="19.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
